--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3492,6 +3492,198 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Primer Monitoreo Semestral Perturbacion Controlada_RevC.pdf</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1204745</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1052724</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Primer Monitoreo Semestral Perturbacion controlada_Apendice A _RevC.xlsx</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1204746</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1052724</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_a884eee4-4eab-11ef-ad89-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1204747</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1052724</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MMFau1-a Primer Monitoreo Semestral Rescate Relocalizacion Reptiles_RevC.pdf</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1204757</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1052729</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MMFau1-a Primer Monitoreo Semestral Relocalizacion Reptiles_Apendice A_RevC.xlsx</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1204758</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1052729</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_9713e992-4ead-11ef-bebe-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1204759</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1052729</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3684,6 +3684,390 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Informe capacitación previo a la construcción.pdf</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205062</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1052795</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FormatoBiodiversidadMonitoreoYLineaBase_v5.2.xlsx</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205063</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1052795</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Inducción Ambiental PFV Tamarico.pdf</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205064</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1052795</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_c842f66c-4f4c-11ef-ad89-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205065</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1052795</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MCVF1-a Informe Programa Manejo Germoplasma Flora Categoria Conservacion_RevC.pdf</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205124</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1052809</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>FormatoBiodiversidadMonitoreoYLineaBase_v5.2.xlsx</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205125</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1052809</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MCVF1-a Certificado Recepción Germoplasma CESAF.pdf</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205126</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1052809</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_d1939ca8-4f51-11ef-bebe-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205127</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1052809</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Informe agua industrial enero-junio 2024.pdf</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205146</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1052816</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Fotografías_Humectación.pdf</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205147</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1052816</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Fotografias_Humectación-10052024.pdf</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205148</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1052816</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_d6810d04-4f56-11ef-ad89-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1205149</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1052816</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4068,6 +4068,102 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MRVF-1 Informe Único Restauracion Areas Intervencion Temporal - Construccion Infraestructura_RevB.pdf</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>02-08-2024</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206044</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1053035</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>FormatoBiodiversidadMonitoreoYLineaBase_v5.2.xlsx</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>02-08-2024</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206045</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1053035</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_f2f97132-50d3-11ef-99fa-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>02-08-2024</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206046</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1053035</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4164,6 +4164,294 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MMFau1-d_1er Informe Seguimiento Aplicacion procedimiento perturbacion controlada_RevA.pdf</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206323</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1053113</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Apendice A_1er Seguimiento Perturbación controlada_RevA.xlsx</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206324</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1053113</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_2966239a-52a6-11ef-a8d6-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206325</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1053113</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MMFau1-d_2do Informe Seguimiento Aplicacion Procedimiento Perturbacion Controlada_RevA.pdf</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206326</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1053114</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Apendice A_2do Seguimiento Perturbación controlada_RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206327</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1053114</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_bae492c0-52a6-11ef-99fa-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206328</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1053114</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MMFau1-d_3er Informe Seguimiento Aplicacion Procedimiento Perturbacion Controlada_RevB.pdf</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206329</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1053115</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Apendice A_3er Informe Seguimiento Perturbación Controlada_RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206330</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1053115</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_3ca1498e-52a7-11ef-99fa-0242ac110013.pdf</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1206331</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1053115</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4452,6 +4452,198 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Mensual 2 Monitoreo Consolidado Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1232830</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1059557</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Mensual 2 Monitoreo Consolidado Rev0.XLS</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1232831</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1059557</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_53b43be8-a6aa-11ef-b7b0-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1232832</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1059557</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Mensual 3 Monitoreo Consolidado Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1232875</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1059568</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Mensual 3 Monitoreo Consolidado Rev0.XLS</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1232876</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1059568</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_34e7d424-a6b7-11ef-b34b-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1232877</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1059568</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4644,6 +4644,198 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 1 Monitoreo Consolidado Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233132</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1059625</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 1 Monitoreo Consolidado RevB.XLS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233133</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1059625</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_9427ab4c-a74f-11ef-94da-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233134</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1059625</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 2 Monitoreo Consolidado Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233284</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1059665</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 2 Monitoreo Consolidado RevB.XLS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233285</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1059665</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_92d56d9c-a77c-11ef-b7b0-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233286</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1059665</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4836,6 +4836,198 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 3 Monitoreo Consolidado Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233388</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1059690</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 3 Monitoreo Consolidado RevB.XLS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233389</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1059690</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_af2d0722-a815-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233390</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1059690</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 4 Monitoreo Consolidado Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233579</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1059730</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Trimestral 4 Monitoreo Consolidado RevB.XLS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233580</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1059730</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_4e977d96-a844-11ef-b7b0-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233581</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1059730</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5028,6 +5028,102 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Monitoreo Mensual 1 Consolidado Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233851</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1059781</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Monitoreo Mensual 1 Consolidado Rev0.xlsx</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233852</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1059781</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_484091dc-a8e2-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1233853</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1059781</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5124,6 +5124,198 @@
         </is>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Monitoreo Anual N°1 Rescate y Relocalización ECC y Geofitas_Rev0.DOC.pdf</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234053</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1059835</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Monitoreo Anual N°1 Rescate y Relocalizacion_S4_S1_S2_RevB.XLS</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234054</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1059835</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_fcacb41e-a993-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234055</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1059835</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N°7 Monitoreo Otoño_Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234058</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1059838</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N7 Apendice C_RevC.xlsx</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234059</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1059838</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_34f9a804-a9ad-11ef-94da-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234060</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1059838</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5316,6 +5316,198 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N°8 Monitoreo Invierno Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234172</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1059868</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N8 Apendice C_RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234173</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1059868</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_a61e0ed4-ab2f-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234174</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1059868</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Monitoreo Semestral 1_Año 2_Sect_1_2_4. REV0.pdf</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234466</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1059918</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>MMVF-1 Informe Monitoreo Semestral 1 _Sectores 1_2_4_RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234467</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1059918</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_8b32d8a2-ab70-11ef-b34b-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234468</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1059918</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5508,6 +5508,294 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MCFau2_A-Informe Anual 1 Monitoreo Anual Guanacos y Zorros-VF- REV0.pdf</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234643</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1059956</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>McFau2-a Informe Monitoreo Estacional Anual N°1_VF.xlsx</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234644</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1059956</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_b0512144-ac14-11ef-b34b-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234645</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1059956</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N°4 Monitoreo Invierno_Rev1.pdf</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234694</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1059961</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N°4 Monitoreo Invierno_Rev0.xlsx</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234695</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1059961</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_d88f599c-ac22-11ef-b34b-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234696</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1059961</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MRFau-1_Informe Restauración de hábitat de reptiles_Final REV0.pdf</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234752</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1059975</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MRFau-1 Informe Unico Cumplimiento Indicador.xlsx</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234753</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1059975</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_fe499724-ac2c-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1234754</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1059975</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5796,6 +5796,102 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Segundo Monitoreo Semestral Perturbacion Controlada Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1238587</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1060931</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MMFau1-d_Segundo Monitoreo Semestral Perturbacion Controlada Apendice A RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1238588</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1060931</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_bf210ae2-b7de-11ef-b7b0-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1238589</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1060931</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5892,6 +5892,102 @@
         </is>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MCFau2-c_Actividades de Difusion Ambiental_Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1242744</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1062007</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>FormatoBiodiversidadMonitoreoYLineaBase_v5.2.xlsx</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1242745</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1062007</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_df9d33d8-c6af-11ef-94da-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1242746</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1062007</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5988,6 +5988,294 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MMFau1-a Segundo Monitoreo Semestral Rescate Relocalizacion Reptiles_Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244248</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1062327</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MMFau1-a Segundo Monitoreo Semestral Rescate Relocalizacion Apendice A_RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244249</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1062327</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_075cfd7c-c9d5-11ef-b34b-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244250</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1062327</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N°9 Monitoreo Primavera_Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244315</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1062355</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Periodico N°9 Apendice A_RevC.XLS</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244316</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1062355</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_13c0afde-c9f6-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244317</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1062355</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MCFau2_A-Informe Anual 2 Monitoreo Consolidado_Revo.pdf</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244350</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1062365</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MCFau2-a Informe Anual 2 Monitoreo Consolidado_RevB.xlsx</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244351</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1062365</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_ec137f9e-ca0d-11ef-b34b-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244352</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1062365</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Archivos.xlsx
+++ b/Archivos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6276,6 +6276,294 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MCFau2-b_Informe Anual 1 Seguimiento GPS Lama guanicoe_Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244374</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1062375</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MCFau3-b Informe Anual 1 Apendice B.xlsx</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244375</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1062375</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MCFau3-b Registro Satelital Lama guanicoe ID054370.xlsx</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244376</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1062375</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MCFau3-b Registro Satelital Lama guanicoe ID054373.xlsx</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244377</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1062375</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_251c5498-caa7-11ef-b7b0-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244378</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1062375</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MCFau2-e Informe Anual N°2 Plan Esterilizacion Canina y felina IMVallenar_Rev0.pdf</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244379</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1062376</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>FormatoBiodiversidadMonitoreoYLineaBase_v5.2.xlsx</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244380</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1062376</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MCFau2-e Informe Anual N°2 Apendice A_RevB-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244381</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1062376</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Comprobante_environmental_monitoring_06ff18aa-cab2-11ef-a0c7-0242ac110005.pdf</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Descargar</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/General/DescargarInformeSeguimiento/1244382</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1062376</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
